--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,21 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vguillem/git/sensometrics2024_SFA/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA2535-7C76-B34F-AA2A-3E2353DA1BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="40900" yWindow="3100" windowWidth="24520" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Presentation and ice breaker</t>
+  </si>
+  <si>
+    <t>VG, VLG</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t>R and PCA</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Sparse SVD</t>
+  </si>
+  <si>
+    <t>Coffee Break</t>
+  </si>
+  <si>
+    <t>Sparse PCA</t>
+  </si>
+  <si>
+    <t>Sparse CA</t>
+  </si>
+  <si>
+    <t>Sparse PLSC</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +118,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -63,13 +151,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +203,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +237,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +272,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,55 +448,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>topic</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>operator</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>9:30</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Presentation and ice breaker</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>VG, VLG</t>
-        </is>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="B2" s="2">
+        <f>A2+C2</f>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <f>B2</f>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B8" si="0">A3+C3</f>
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A8" si="1">B3</f>
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43055555555555552</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <f t="shared" si="1"/>
+        <v>0.43055555555555552</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.46180555555555552</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.46180555555555552</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.48263888888888884</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.48263888888888884</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vguillem/git/sensometrics2024_SFA/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA2535-7C76-B34F-AA2A-3E2353DA1BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D388104-3915-5845-B057-93C0C8AE756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40900" yWindow="3100" windowWidth="24520" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Presentation and ice breaker</t>
   </si>
   <si>
-    <t>VG, VLG</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>R and PCA</t>
   </si>
   <si>
-    <t>VG</t>
-  </si>
-  <si>
     <t>Sparse SVD</t>
   </si>
   <si>
@@ -75,6 +69,9 @@
   </si>
   <si>
     <t>Sparse PLSC</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -466,19 +463,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -496,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -512,10 +509,10 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,7 +528,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,7 +547,10 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,7 +566,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -579,6 +585,9 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -595,7 +604,10 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
